--- a/output/1Y_P78_1VAL-D.xlsx
+++ b/output/1Y_P78_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>647.044</v>
       </c>
-      <c r="G2" s="1">
-        <v>647.044</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.107099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.4549</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.107099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E3" s="1">
+        <v>647.044</v>
+      </c>
       <c r="F3" s="1">
         <v>640.2745</v>
       </c>
-      <c r="G3" s="1">
-        <v>1287.3185</v>
-      </c>
       <c r="H3" s="1">
-        <v>20001.4542</v>
+        <v>10053.3164</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5362</v>
+        <v>10053.3164</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.4549</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20001.4542</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0027</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E4" s="1">
+        <v>1287.3185</v>
+      </c>
       <c r="F4" s="1">
         <v>622.952</v>
       </c>
-      <c r="G4" s="1">
-        <v>1910.2706</v>
-      </c>
       <c r="H4" s="1">
-        <v>30505.6839</v>
+        <v>20557.5758</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7046</v>
+        <v>20557.5758</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.5362</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30505.6839</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0168</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E5" s="1">
+        <v>1910.2706</v>
+      </c>
       <c r="F5" s="1">
         <v>634.6708</v>
       </c>
-      <c r="G5" s="1">
-        <v>2544.9414</v>
-      </c>
       <c r="H5" s="1">
-        <v>39890.6835</v>
+        <v>29942.5361</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.7175</v>
+        <v>29942.5361</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7046</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39890.6835</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0152</v>
+        <v>-0.0201</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E6" s="1">
+        <v>2544.9414</v>
+      </c>
       <c r="F6" s="1">
         <v>651.0205</v>
       </c>
-      <c r="G6" s="1">
-        <v>3195.9618</v>
-      </c>
       <c r="H6" s="1">
-        <v>48836.8538</v>
+        <v>38888.7401</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6447</v>
+        <v>38888.7401</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.7175</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48836.8538</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0211</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E7" s="1">
+        <v>3195.9618</v>
+      </c>
       <c r="F7" s="1">
         <v>654.4674</v>
       </c>
-      <c r="G7" s="1">
-        <v>3850.4292</v>
-      </c>
       <c r="H7" s="1">
-        <v>58527.6796</v>
+        <v>48579.5788</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5827</v>
+        <v>48579.5788</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6447</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58527.6796</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0053</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E8" s="1">
+        <v>3850.4292</v>
+      </c>
       <c r="F8" s="1">
         <v>649.2578999999999</v>
       </c>
-      <c r="G8" s="1">
-        <v>4499.6871</v>
-      </c>
       <c r="H8" s="1">
-        <v>68945.55620000001</v>
+        <v>58997.4319</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.5566</v>
+        <v>58997.4319</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5827</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68945.55620000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0061</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.042</v>
       </c>
+      <c r="E9" s="1">
+        <v>4499.6871</v>
+      </c>
       <c r="F9" s="1">
         <v>623.3637</v>
       </c>
-      <c r="G9" s="1">
-        <v>5123.0508</v>
-      </c>
       <c r="H9" s="1">
-        <v>81758.2555</v>
+        <v>71810.05710000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.6157</v>
+        <v>71810.05710000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.5566</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81758.2555</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0356</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E10" s="1">
+        <v>5123.0508</v>
+      </c>
       <c r="F10" s="1">
         <v>631.1458</v>
       </c>
-      <c r="G10" s="1">
-        <v>5754.1966</v>
-      </c>
       <c r="H10" s="1">
-        <v>90697.6467</v>
+        <v>80749.52680000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6408</v>
+        <v>80749.52680000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.6157</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90697.6467</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0116</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E11" s="1">
+        <v>5754.1966</v>
+      </c>
       <c r="F11" s="1">
         <v>626.1387999999999</v>
       </c>
-      <c r="G11" s="1">
-        <v>6380.3354</v>
-      </c>
       <c r="H11" s="1">
-        <v>101370.7685</v>
+        <v>91422.67539999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.6732</v>
+        <v>91422.67539999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.6408</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101370.7685</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0067</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.743</v>
       </c>
+      <c r="E12" s="1">
+        <v>6380.3354</v>
+      </c>
       <c r="F12" s="1">
         <v>597.2645</v>
       </c>
-      <c r="G12" s="1">
-        <v>6977.5999</v>
-      </c>
       <c r="H12" s="1">
-        <v>116220.2996</v>
+        <v>106272.1422</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.7647</v>
+        <v>106272.1422</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.6732</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116220.2996</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0435</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E13" s="1">
+        <v>6977.5999</v>
+      </c>
       <c r="F13" s="1">
         <v>567.553</v>
       </c>
-      <c r="G13" s="1">
-        <v>7545.1529</v>
-      </c>
       <c r="H13" s="1">
-        <v>132252.1946</v>
+        <v>122304.069</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.9043</v>
+        <v>122304.069</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.7647</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>132252.1946</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0478</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E14" s="1">
+        <v>7545.1529</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7545.1529</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6977.5999</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>132590.972</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.9043</v>
+        <v>132590.972</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.5789</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>132590.972</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>132590.972</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132590.972</v>
+        <v>122617.3632</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0679</v>
+        <v>0.0022</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.4549</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>647.044</v>
       </c>
       <c r="G2" s="1">
-        <v>647.044</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.107099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.4549</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.107099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.6183</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>647.044</v>
       </c>
       <c r="F3" s="1">
         <v>640.181</v>
       </c>
       <c r="G3" s="1">
-        <v>1287.2249</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10053.3164</v>
       </c>
       <c r="I3" s="1">
-        <v>19998.5382</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5362</v>
+        <v>10053.3164</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9998.538200000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.4526</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9998.538200000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>1.4618</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20001.4618</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0027</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.0526</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1287.2249</v>
       </c>
       <c r="F4" s="1">
         <v>591.3796</v>
       </c>
       <c r="G4" s="1">
-        <v>1878.6046</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20556.0812</v>
       </c>
       <c r="I4" s="1">
-        <v>29491.719</v>
+        <v>1.4618</v>
       </c>
       <c r="J4" s="1">
-        <v>15.6987</v>
+        <v>20557.5429</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19491.719</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.1424</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9493.1808</v>
       </c>
-      <c r="O4" s="1">
-        <v>508.281</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30508.281</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0169</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.7562</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1878.6046</v>
       </c>
       <c r="F5" s="1">
         <v>666.9299</v>
       </c>
       <c r="G5" s="1">
-        <v>2545.5345</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39899.9802</v>
+        <v>29446.1874</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>508.281</v>
       </c>
       <c r="J5" s="1">
-        <v>15.7138</v>
+        <v>29954.4684</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.9693</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10508.281</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39899.9802</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.015</v>
+        <v>-0.0197</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.3605</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2545.5345</v>
       </c>
       <c r="F6" s="1">
         <v>651.0205</v>
       </c>
       <c r="G6" s="1">
-        <v>3196.555</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>48845.917</v>
+        <v>38897.8033</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6418</v>
+        <v>38897.8033</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.7138</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48845.917</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0211</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.2796</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3196.555</v>
       </c>
       <c r="F7" s="1">
         <v>654.4674</v>
       </c>
       <c r="G7" s="1">
-        <v>3851.0223</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>58536.695</v>
+        <v>48588.5943</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5803</v>
+        <v>48588.5943</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6418</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58536.695</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0053</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.4022</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3851.0223</v>
       </c>
       <c r="F8" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>4500.2802</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>68954.644</v>
+        <v>59006.5197</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.5546</v>
+        <v>59006.5197</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5803</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68954.644</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0061</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.042</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4500.2802</v>
       </c>
       <c r="F9" s="1">
         <v>512.5966</v>
       </c>
       <c r="G9" s="1">
-        <v>5012.8768</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>71819.5224</v>
       </c>
       <c r="I9" s="1">
-        <v>78223.07429999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.6044</v>
+        <v>71819.5224</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68223.07429999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.1597</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8223.0743</v>
       </c>
-      <c r="O9" s="1">
-        <v>1776.9257</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81776.92570000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.8442</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5012.8768</v>
       </c>
       <c r="F10" s="1">
         <v>697.0585</v>
       </c>
       <c r="G10" s="1">
-        <v>5709.9353</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>79012.96460000001</v>
       </c>
       <c r="I10" s="1">
-        <v>89267.408</v>
+        <v>1776.9257</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6337</v>
+        <v>80789.89019999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79267.408</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.8128</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11044.3337</v>
       </c>
-      <c r="O10" s="1">
-        <v>732.592</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90732.592</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0114</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.9709</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5709.9353</v>
       </c>
       <c r="F11" s="1">
         <v>584.1231</v>
       </c>
       <c r="G11" s="1">
-        <v>6294.0584</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>90719.4518</v>
       </c>
       <c r="I11" s="1">
-        <v>98596.3799</v>
+        <v>732.592</v>
       </c>
       <c r="J11" s="1">
-        <v>15.665</v>
+        <v>91452.0439</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88596.3799</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.5162</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9328.972</v>
       </c>
-      <c r="O11" s="1">
-        <v>1403.6201</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101403.6201</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0067</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.743</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6294.0584</v>
       </c>
       <c r="F12" s="1">
         <v>310.089</v>
       </c>
       <c r="G12" s="1">
-        <v>6604.1474</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>104835.0957</v>
       </c>
       <c r="I12" s="1">
-        <v>103788.2</v>
+        <v>1403.6201</v>
       </c>
       <c r="J12" s="1">
-        <v>15.7156</v>
+        <v>106238.7157</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93788.2</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.9011</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5191.8201</v>
       </c>
-      <c r="O12" s="1">
-        <v>6211.8</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116211.8</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0432</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.6195</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6604.1474</v>
       </c>
       <c r="F13" s="1">
         <v>242.0025</v>
       </c>
       <c r="G13" s="1">
-        <v>6846.1499</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>115758.1561</v>
       </c>
       <c r="I13" s="1">
-        <v>108052.1629</v>
+        <v>6211.8</v>
       </c>
       <c r="J13" s="1">
-        <v>15.7829</v>
+        <v>121969.9561</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>98052.1629</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.8471</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-4263.9629</v>
       </c>
-      <c r="O13" s="1">
-        <v>11947.8371</v>
-      </c>
-      <c r="P13" s="1">
-        <v>131947.8371</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0454</v>
+        <v>0.0493</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.6646</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6846.1499</v>
       </c>
       <c r="F14" s="1">
         <v>-6846.1499</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120307.3921</v>
       </c>
       <c r="I14" s="1">
-        <v>108052.1629</v>
+        <v>11947.8371</v>
       </c>
       <c r="J14" s="1">
-        <v>15.7829</v>
+        <v>132255.2292</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>98052.1629</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.3222</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>120307.3921</v>
       </c>
-      <c r="O14" s="1">
-        <v>132255.2292</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132255.2292</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0683</v>
+        <v>0.0022</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.4549</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>647.044</v>
       </c>
       <c r="G2" s="1">
-        <v>647.044</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.107099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.4549</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.107099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.6183</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>647.044</v>
       </c>
       <c r="F3" s="1">
         <v>643.399</v>
       </c>
       <c r="G3" s="1">
-        <v>1290.443</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10053.3164</v>
       </c>
       <c r="I3" s="1">
-        <v>20048.7989</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5364</v>
+        <v>10053.3164</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10048.7989</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.5303</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10048.7989</v>
       </c>
-      <c r="O3" s="1">
-        <v>-48.7989</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20001.2011</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0027</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.0526</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1290.443</v>
       </c>
       <c r="F4" s="1">
         <v>597.5703</v>
       </c>
       <c r="G4" s="1">
-        <v>1888.0133</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20607.4714</v>
       </c>
       <c r="I4" s="1">
-        <v>29641.3551</v>
+        <v>-48.7989</v>
       </c>
       <c r="J4" s="1">
-        <v>15.6998</v>
+        <v>20558.6725</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19641.3551</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.2206</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9592.556200000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>358.6449</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30508.8949</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0169</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.7562</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1888.0133</v>
       </c>
       <c r="F5" s="1">
         <v>657.4329</v>
       </c>
       <c r="G5" s="1">
-        <v>2545.4462</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39898.5963</v>
+        <v>29593.6637</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>358.6449</v>
       </c>
       <c r="J5" s="1">
-        <v>15.7143</v>
+        <v>29952.3086</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.8897</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10358.6449</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39898.5963</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0151</v>
+        <v>-0.0198</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.3605</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2545.4462</v>
       </c>
       <c r="F6" s="1">
         <v>651.0205</v>
       </c>
       <c r="G6" s="1">
-        <v>3196.4667</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>48844.5678</v>
+        <v>38896.4541</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6423</v>
+        <v>38896.4541</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.7143</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48844.5678</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0211</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.2796</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3196.4667</v>
       </c>
       <c r="F7" s="1">
         <v>654.4674</v>
       </c>
       <c r="G7" s="1">
-        <v>3850.9341</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>58535.353</v>
+        <v>48587.2522</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5806</v>
+        <v>48587.2522</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6423</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58535.353</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0053</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.4022</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3850.9341</v>
       </c>
       <c r="F8" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>4500.192</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>68953.29120000001</v>
+        <v>59005.1669</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.5549</v>
+        <v>59005.1669</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5806</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68953.29120000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0061</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.042</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4500.192</v>
       </c>
       <c r="F9" s="1">
         <v>601.293</v>
       </c>
       <c r="G9" s="1">
-        <v>5101.4849</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71818.1134</v>
       </c>
       <c r="I9" s="1">
-        <v>79645.94190000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.6123</v>
+        <v>71818.1134</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69645.94190000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.4762</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9645.9419</v>
       </c>
-      <c r="O9" s="1">
-        <v>354.0581</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81768.14599999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0357</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.8442</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5101.4849</v>
       </c>
       <c r="F10" s="1">
         <v>653.492</v>
       </c>
       <c r="G10" s="1">
-        <v>5754.9769</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>90709.94650000001</v>
+        <v>80409.60550000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>354.0581</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6386</v>
+        <v>80763.6636</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.6817</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10354.0581</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90709.94650000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0115</v>
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.9709</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5754.9769</v>
       </c>
       <c r="F11" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6381.1157</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>101383.1667</v>
+        <v>91435.0736</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.6712</v>
+        <v>91435.0736</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.6386</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101383.1667</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0067</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.743</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6381.1157</v>
       </c>
       <c r="F12" s="1">
         <v>390.6369</v>
       </c>
       <c r="G12" s="1">
-        <v>6771.7526</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>106285.1398</v>
       </c>
       <c r="I12" s="1">
-        <v>106540.4328</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.7331</v>
+        <v>106285.1398</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>96540.4328</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.1291</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6540.4328</v>
       </c>
-      <c r="O12" s="1">
-        <v>3459.5672</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116251.2326</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0437</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.6195</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6771.7526</v>
       </c>
       <c r="F13" s="1">
         <v>265.8398</v>
       </c>
       <c r="G13" s="1">
-        <v>7037.5924</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>118695.9565</v>
       </c>
       <c r="I13" s="1">
-        <v>111224.3978</v>
+        <v>3459.5672</v>
       </c>
       <c r="J13" s="1">
-        <v>15.8043</v>
+        <v>122155.5236</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>101224.3978</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.948</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-4683.965</v>
       </c>
-      <c r="O13" s="1">
-        <v>8775.602199999999</v>
-      </c>
-      <c r="P13" s="1">
-        <v>132131.2259</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0466</v>
+        <v>0.0505</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.6646</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7037.5924</v>
       </c>
       <c r="F14" s="1">
         <v>-7037.5924</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123671.6116</v>
       </c>
       <c r="I14" s="1">
-        <v>111224.3978</v>
+        <v>8775.602199999999</v>
       </c>
       <c r="J14" s="1">
-        <v>15.8043</v>
+        <v>132447.2138</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>101224.3978</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.3834</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>123671.6116</v>
       </c>
-      <c r="O14" s="1">
-        <v>132447.2138</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132447.2138</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.06809999999999999</v>
+        <v>0.0022</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.4549</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>647.044</v>
       </c>
       <c r="G2" s="1">
-        <v>647.044</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.107099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.4549</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.107099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.6183</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>647.044</v>
       </c>
       <c r="F3" s="1">
         <v>640.2745</v>
       </c>
       <c r="G3" s="1">
-        <v>1287.3185</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20001.4542</v>
+        <v>10053.3164</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5362</v>
+        <v>10053.3164</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.4549</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20001.4542</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0027</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.0526</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1287.3185</v>
       </c>
       <c r="F4" s="1">
         <v>610.1347</v>
       </c>
       <c r="G4" s="1">
-        <v>1897.4532</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20557.5758</v>
       </c>
       <c r="I4" s="1">
-        <v>29794.2484</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7022</v>
+        <v>20557.5758</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19794.2484</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.3763</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9794.2484</v>
       </c>
-      <c r="O4" s="1">
-        <v>205.7516</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30506.7516</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0168</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.7562</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1897.4532</v>
       </c>
       <c r="F5" s="1">
         <v>647.7292</v>
       </c>
       <c r="G5" s="1">
-        <v>2545.1825</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39894.4629</v>
+        <v>29741.6308</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>205.7516</v>
       </c>
       <c r="J5" s="1">
-        <v>15.716</v>
+        <v>29947.3824</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.8107</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10205.7516</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39894.4629</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0151</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.3605</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2545.1825</v>
       </c>
       <c r="F6" s="1">
         <v>651.0205</v>
       </c>
       <c r="G6" s="1">
-        <v>3196.203</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>48840.5382</v>
+        <v>38892.4245</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6436</v>
+        <v>38892.4245</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.716</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48840.5382</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0211</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.2796</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3196.203</v>
       </c>
       <c r="F7" s="1">
         <v>654.4674</v>
       </c>
       <c r="G7" s="1">
-        <v>3850.6704</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>58531.3446</v>
+        <v>48583.2439</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5817</v>
+        <v>48583.2439</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6436</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58531.3446</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0053</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.4022</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3850.6704</v>
       </c>
       <c r="F8" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>4499.9283</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>68949.2507</v>
+        <v>59001.1264</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.5558</v>
+        <v>59001.1264</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5817</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68949.2507</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0061</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.042</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4499.9283</v>
       </c>
       <c r="F9" s="1">
         <v>623.3637</v>
       </c>
       <c r="G9" s="1">
-        <v>5123.2919</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>81762.1035</v>
+        <v>71813.905</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.615</v>
+        <v>71813.905</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.5558</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81762.1035</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0356</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.8442</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5123.2919</v>
       </c>
       <c r="F10" s="1">
         <v>631.1458</v>
       </c>
       <c r="G10" s="1">
-        <v>5754.4377</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>90701.4471</v>
+        <v>80753.3273</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6401</v>
+        <v>80753.3273</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.615</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90701.4471</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0116</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.9709</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5754.4377</v>
       </c>
       <c r="F11" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6380.5765</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>101374.5994</v>
+        <v>91426.50629999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.6726</v>
+        <v>91426.50629999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.6401</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101374.5994</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0067</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.743</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6380.5765</v>
       </c>
       <c r="F12" s="1">
         <v>563.8854</v>
       </c>
       <c r="G12" s="1">
-        <v>6944.4619</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>106276.1582</v>
       </c>
       <c r="I12" s="1">
-        <v>109441.1337</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.7595</v>
+        <v>106276.1582</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99441.13370000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.585</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-9441.1337</v>
       </c>
-      <c r="O12" s="1">
-        <v>558.8663</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116227.213</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0436</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.6195</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6944.4619</v>
       </c>
       <c r="F13" s="1">
         <v>291.0645</v>
       </c>
       <c r="G13" s="1">
-        <v>7235.5264</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>121723.223</v>
       </c>
       <c r="I13" s="1">
-        <v>114569.5441</v>
+        <v>558.8663</v>
       </c>
       <c r="J13" s="1">
-        <v>15.8343</v>
+        <v>122282.0893</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104569.5441</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.058</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5128.4104</v>
       </c>
-      <c r="O13" s="1">
-        <v>5430.4559</v>
-      </c>
-      <c r="P13" s="1">
-        <v>132255.486</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0478</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.6646</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7235.5264</v>
       </c>
       <c r="F14" s="1">
         <v>-7235.5264</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127149.9053</v>
       </c>
       <c r="I14" s="1">
-        <v>114569.5441</v>
+        <v>5430.4559</v>
       </c>
       <c r="J14" s="1">
-        <v>15.8343</v>
+        <v>132580.3612</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104569.5441</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.4522</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127149.9053</v>
       </c>
-      <c r="O14" s="1">
-        <v>132580.3612</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132580.3612</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.068</v>
+        <v>0.0023</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.4549</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>647.044</v>
       </c>
       <c r="G2" s="1">
-        <v>647.044</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.107099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.4549</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.107099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.6183</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>647.044</v>
       </c>
       <c r="F3" s="1">
         <v>640.2745</v>
       </c>
       <c r="G3" s="1">
-        <v>1287.3185</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20001.4542</v>
+        <v>10053.3164</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.5362</v>
+        <v>10053.3164</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.4549</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20001.4542</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0027</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.0526</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1287.3185</v>
       </c>
       <c r="F4" s="1">
         <v>619.606</v>
       </c>
       <c r="G4" s="1">
-        <v>1906.9245</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20557.5758</v>
       </c>
       <c r="I4" s="1">
-        <v>29946.2874</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.704</v>
+        <v>20557.5758</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19946.2874</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.4944</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9946.287399999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>53.7126</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30505.9626</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0168</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.7562</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1906.9245</v>
       </c>
       <c r="F5" s="1">
         <v>638.0798</v>
       </c>
       <c r="G5" s="1">
-        <v>2545.0043</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39891.6701</v>
+        <v>29890.0886</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>53.7126</v>
       </c>
       <c r="J5" s="1">
-        <v>15.7171</v>
+        <v>29943.8013</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7321</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10053.7126</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39891.6701</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0152</v>
+        <v>-0.0201</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.3605</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2545.0043</v>
       </c>
       <c r="F6" s="1">
         <v>651.0205</v>
       </c>
       <c r="G6" s="1">
-        <v>3196.0248</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>48837.8156</v>
+        <v>38889.7019</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.6444</v>
+        <v>38889.7019</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.7171</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48837.8156</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0211</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.2796</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3196.0248</v>
       </c>
       <c r="F7" s="1">
         <v>654.4674</v>
       </c>
       <c r="G7" s="1">
-        <v>3850.4922</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>58528.6363</v>
+        <v>48580.5356</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5824</v>
+        <v>48580.5356</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6444</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58528.6363</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0053</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.4022</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3850.4922</v>
       </c>
       <c r="F8" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>4499.7501</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>68946.52069999999</v>
+        <v>58998.3964</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.5564</v>
+        <v>58998.3964</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5824</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68946.52069999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0061</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.042</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4499.7501</v>
       </c>
       <c r="F9" s="1">
         <v>623.3637</v>
       </c>
       <c r="G9" s="1">
-        <v>5123.1138</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>81759.2601</v>
+        <v>71811.0616</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.6155</v>
+        <v>71811.0616</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.5564</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>81759.2601</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0356</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.8442</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5123.1138</v>
       </c>
       <c r="F10" s="1">
         <v>631.1458</v>
       </c>
       <c r="G10" s="1">
-        <v>5754.2595</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>90698.6388</v>
+        <v>80750.519</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.6406</v>
+        <v>80750.519</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.6155</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90698.6388</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0116</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.9709</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5754.2595</v>
       </c>
       <c r="F11" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6380.3983</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>101371.7686</v>
+        <v>91423.6755</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.673</v>
+        <v>91423.6755</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.6406</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>101371.7686</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0067</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.743</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6380.3983</v>
       </c>
       <c r="F12" s="1">
         <v>597.2645</v>
       </c>
       <c r="G12" s="1">
-        <v>6977.6629</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>116221.348</v>
+        <v>106273.1906</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.7646</v>
+        <v>106273.1906</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.673</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>116221.348</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0435</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.6195</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6977.6629</v>
       </c>
       <c r="F13" s="1">
         <v>462.5112</v>
       </c>
       <c r="G13" s="1">
-        <v>7440.174</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>122305.1723</v>
       </c>
       <c r="I13" s="1">
-        <v>118149.2156</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.8799</v>
+        <v>122305.1723</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108149.2156</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.4993</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8149.2156</v>
       </c>
-      <c r="O13" s="1">
-        <v>1850.7844</v>
-      </c>
-      <c r="P13" s="1">
-        <v>132262.8987</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0479</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.6646</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7440.174</v>
       </c>
       <c r="F14" s="1">
         <v>-7440.174</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130746.1781</v>
       </c>
       <c r="I14" s="1">
-        <v>118149.2156</v>
+        <v>1850.7844</v>
       </c>
       <c r="J14" s="1">
-        <v>15.8799</v>
+        <v>132596.9626</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108149.2156</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.5358</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>130746.1781</v>
       </c>
-      <c r="O14" s="1">
-        <v>132596.9626</v>
-      </c>
-      <c r="P14" s="1">
-        <v>132596.9626</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0679</v>
+        <v>0.0022</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.617</v>
@@ -4514,99 +4487,99 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.9043</v>
+        <v>14.5789</v>
       </c>
       <c r="D3" s="1">
-        <v>15.7829</v>
+        <v>14.3222</v>
       </c>
       <c r="E3" s="1">
-        <v>15.8043</v>
+        <v>14.3834</v>
       </c>
       <c r="F3" s="1">
-        <v>15.8343</v>
+        <v>14.4522</v>
       </c>
       <c r="G3" s="1">
-        <v>15.8799</v>
+        <v>14.5358</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.138</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0382</v>
+        <v>0.1219</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0356</v>
+        <v>0.1192</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0372</v>
+        <v>0.1208</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0382</v>
+        <v>0.1218</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0383</v>
+        <v>0.1219</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.0859</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1056</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1047</v>
+        <v>0.0848</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1053</v>
+        <v>0.0857</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1056</v>
+        <v>0.0863</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1056</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.3694</v>
       </c>
       <c r="C6" s="4">
-        <v>0.1692</v>
+        <v>1.1738</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1461</v>
+        <v>1.1663</v>
       </c>
       <c r="E6" s="4">
-        <v>0.1602</v>
+        <v>1.1724</v>
       </c>
       <c r="F6" s="4">
-        <v>0.1691</v>
+        <v>1.1759</v>
       </c>
       <c r="G6" s="4">
-        <v>0.1698</v>
+        <v>1.1748</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1992</v>
+        <v>0.0405</v>
       </c>
       <c r="D7" s="3">
         <v>0.1995</v>
@@ -4623,7 +4596,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
